--- a/output/output_data.xlsx
+++ b/output/output_data.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F304"/>
+  <dimension ref="A1:F331"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -6482,9 +6482,549 @@
         <v>9 mins</v>
       </c>
     </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>10012</v>
+      </c>
+      <c r="B305" t="str">
+        <v>N6, Kumasi, Ghana</v>
+      </c>
+      <c r="C305" t="str">
+        <v>Anloga Junction, MCQ3+6JG, Kumasi, Ghana</v>
+      </c>
+      <c r="D305" t="str">
+        <v>Sat, 16 Jul 2022 19:30:00 GMT</v>
+      </c>
+      <c r="E305" t="str">
+        <v>6.2 km</v>
+      </c>
+      <c r="F305" t="str">
+        <v>9 mins</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>10010</v>
+      </c>
+      <c r="B306" t="str">
+        <v>Unnamed Road, Kumasi, Ghana</v>
+      </c>
+      <c r="C306" t="str">
+        <v>MCP7+G8J, JK Acheampong Ave, Kumasi, Ghana</v>
+      </c>
+      <c r="D306" t="str">
+        <v>Sat, 16 Jul 2022 19:30:00 GMT</v>
+      </c>
+      <c r="E306" t="str">
+        <v>6.5 km</v>
+      </c>
+      <c r="F306" t="str">
+        <v>8 mins</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>10005</v>
+      </c>
+      <c r="B307" t="str">
+        <v>Bomso top high opp luv fm Kumasi-tech junction, Kumasi, Ghana</v>
+      </c>
+      <c r="C307" t="str">
+        <v>302 Kumasi - Ejisu Rd, Kumasi, Ghana</v>
+      </c>
+      <c r="D307" t="str">
+        <v>Sat, 16 Jul 2022 19:30:00 GMT</v>
+      </c>
+      <c r="E307" t="str">
+        <v>2.2 km</v>
+      </c>
+      <c r="F307" t="str">
+        <v>4 mins</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>10001</v>
+      </c>
+      <c r="B308" t="str">
+        <v>MCPG+GCX KNUST University Hospital, N6, Kumasi, Ghana</v>
+      </c>
+      <c r="C308" t="str">
+        <v>PF3C+9CV, Afia-kobi Street, Kumasi, Ghana</v>
+      </c>
+      <c r="D308" t="str">
+        <v>Sat, 16 Jul 2022 19:30:00 GMT</v>
+      </c>
+      <c r="E308" t="str">
+        <v>7.1 km</v>
+      </c>
+      <c r="F308" t="str">
+        <v>12 mins</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>10011</v>
+      </c>
+      <c r="B309" t="str">
+        <v>B56 Bomso Cres, Kumasi, Ghana</v>
+      </c>
+      <c r="C309" t="str">
+        <v>Unnamed Road, Kumasi, Ghana</v>
+      </c>
+      <c r="D309" t="str">
+        <v>Sat, 16 Jul 2022 19:30:00 GMT</v>
+      </c>
+      <c r="E309" t="str">
+        <v>4.6 km</v>
+      </c>
+      <c r="F309" t="str">
+        <v>8 mins</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>10008</v>
+      </c>
+      <c r="B310" t="str">
+        <v>Unnamed Road, Kumasi, Ghana</v>
+      </c>
+      <c r="C310" t="str">
+        <v>Bomso top high opp luv fm Kumasi-tech junction, Kumasi, Ghana</v>
+      </c>
+      <c r="D310" t="str">
+        <v>Sat, 16 Jul 2022 19:30:00 GMT</v>
+      </c>
+      <c r="E310" t="str">
+        <v>6.4 km</v>
+      </c>
+      <c r="F310" t="str">
+        <v>10 mins</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>10013</v>
+      </c>
+      <c r="B311" t="str">
+        <v>N6, Kumasi, Ghana</v>
+      </c>
+      <c r="C311" t="str">
+        <v>Anloga Junction, MCQ3+6JG, Kumasi, Ghana</v>
+      </c>
+      <c r="D311" t="str">
+        <v>Sat, 16 Jul 2022 19:30:00 GMT</v>
+      </c>
+      <c r="E311" t="str">
+        <v>6.2 km</v>
+      </c>
+      <c r="F311" t="str">
+        <v>9 mins</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>10006</v>
+      </c>
+      <c r="B312" t="str">
+        <v>Bomso top high opp luv fm Kumasi-tech junction, Kumasi, Ghana</v>
+      </c>
+      <c r="C312" t="str">
+        <v>N6, Kumasi, Ghana</v>
+      </c>
+      <c r="D312" t="str">
+        <v>Sat, 16 Jul 2022 19:30:00 GMT</v>
+      </c>
+      <c r="E312" t="str">
+        <v>2.7 km</v>
+      </c>
+      <c r="F312" t="str">
+        <v>5 mins</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>10003</v>
+      </c>
+      <c r="B313" t="str">
+        <v>MCPG+GCX KNUST University Hospital, N6, Kumasi, Ghana</v>
+      </c>
+      <c r="C313" t="str">
+        <v>Unnamed Road, Kumasi, Ghana</v>
+      </c>
+      <c r="D313" t="str">
+        <v>Sat, 16 Jul 2022 19:30:00 GMT</v>
+      </c>
+      <c r="E313" t="str">
+        <v>4.5 km</v>
+      </c>
+      <c r="F313" t="str">
+        <v>7 mins</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>10005</v>
+      </c>
+      <c r="B314" t="str">
+        <v>Bomso top high opp luv fm Kumasi-tech junction, Kumasi, Ghana</v>
+      </c>
+      <c r="C314" t="str">
+        <v>302 Kumasi - Ejisu Rd, Kumasi, Ghana</v>
+      </c>
+      <c r="D314" t="str">
+        <v>Sat, 16 Jul 2022 20:00:00 GMT</v>
+      </c>
+      <c r="E314" t="str">
+        <v>2.2 km</v>
+      </c>
+      <c r="F314" t="str">
+        <v>4 mins</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>10003</v>
+      </c>
+      <c r="B315" t="str">
+        <v>MCPG+GCX KNUST University Hospital, N6, Kumasi, Ghana</v>
+      </c>
+      <c r="C315" t="str">
+        <v>Unnamed Road, Kumasi, Ghana</v>
+      </c>
+      <c r="D315" t="str">
+        <v>Sat, 16 Jul 2022 20:00:00 GMT</v>
+      </c>
+      <c r="E315" t="str">
+        <v>4.5 km</v>
+      </c>
+      <c r="F315" t="str">
+        <v>7 mins</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>10012</v>
+      </c>
+      <c r="B316" t="str">
+        <v>N6, Kumasi, Ghana</v>
+      </c>
+      <c r="C316" t="str">
+        <v>Anloga Junction, MCQ3+6JG, Kumasi, Ghana</v>
+      </c>
+      <c r="D316" t="str">
+        <v>Sat, 16 Jul 2022 20:00:00 GMT</v>
+      </c>
+      <c r="E316" t="str">
+        <v>6.2 km</v>
+      </c>
+      <c r="F316" t="str">
+        <v>9 mins</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>10011</v>
+      </c>
+      <c r="B317" t="str">
+        <v>B56 Bomso Cres, Kumasi, Ghana</v>
+      </c>
+      <c r="C317" t="str">
+        <v>Unnamed Road, Kumasi, Ghana</v>
+      </c>
+      <c r="D317" t="str">
+        <v>Sat, 16 Jul 2022 20:00:00 GMT</v>
+      </c>
+      <c r="E317" t="str">
+        <v>4.6 km</v>
+      </c>
+      <c r="F317" t="str">
+        <v>8 mins</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>10006</v>
+      </c>
+      <c r="B318" t="str">
+        <v>Bomso top high opp luv fm Kumasi-tech junction, Kumasi, Ghana</v>
+      </c>
+      <c r="C318" t="str">
+        <v>N6, Kumasi, Ghana</v>
+      </c>
+      <c r="D318" t="str">
+        <v>Sat, 16 Jul 2022 20:00:00 GMT</v>
+      </c>
+      <c r="E318" t="str">
+        <v>2.7 km</v>
+      </c>
+      <c r="F318" t="str">
+        <v>5 mins</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>10010</v>
+      </c>
+      <c r="B319" t="str">
+        <v>Unnamed Road, Kumasi, Ghana</v>
+      </c>
+      <c r="C319" t="str">
+        <v>MCP7+G8J, JK Acheampong Ave, Kumasi, Ghana</v>
+      </c>
+      <c r="D319" t="str">
+        <v>Sat, 16 Jul 2022 20:00:00 GMT</v>
+      </c>
+      <c r="E319" t="str">
+        <v>6.5 km</v>
+      </c>
+      <c r="F319" t="str">
+        <v>8 mins</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>10008</v>
+      </c>
+      <c r="B320" t="str">
+        <v>Unnamed Road, Kumasi, Ghana</v>
+      </c>
+      <c r="C320" t="str">
+        <v>Bomso top high opp luv fm Kumasi-tech junction, Kumasi, Ghana</v>
+      </c>
+      <c r="D320" t="str">
+        <v>Sat, 16 Jul 2022 20:00:00 GMT</v>
+      </c>
+      <c r="E320" t="str">
+        <v>6.4 km</v>
+      </c>
+      <c r="F320" t="str">
+        <v>10 mins</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>10013</v>
+      </c>
+      <c r="B321" t="str">
+        <v>N6, Kumasi, Ghana</v>
+      </c>
+      <c r="C321" t="str">
+        <v>Anloga Junction, MCQ3+6JG, Kumasi, Ghana</v>
+      </c>
+      <c r="D321" t="str">
+        <v>Sat, 16 Jul 2022 20:00:00 GMT</v>
+      </c>
+      <c r="E321" t="str">
+        <v>6.2 km</v>
+      </c>
+      <c r="F321" t="str">
+        <v>9 mins</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>10001</v>
+      </c>
+      <c r="B322" t="str">
+        <v>MCPG+GCX KNUST University Hospital, N6, Kumasi, Ghana</v>
+      </c>
+      <c r="C322" t="str">
+        <v>PF3C+9CV, Afia-kobi Street, Kumasi, Ghana</v>
+      </c>
+      <c r="D322" t="str">
+        <v>Sat, 16 Jul 2022 20:00:00 GMT</v>
+      </c>
+      <c r="E322" t="str">
+        <v>7.1 km</v>
+      </c>
+      <c r="F322" t="str">
+        <v>12 mins</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>10013</v>
+      </c>
+      <c r="B323" t="str">
+        <v>N6, Kumasi, Ghana</v>
+      </c>
+      <c r="C323" t="str">
+        <v>Anloga Junction, MCQ3+6JG, Kumasi, Ghana</v>
+      </c>
+      <c r="D323" t="str">
+        <v>Sat, 16 Jul 2022 20:30:00 GMT</v>
+      </c>
+      <c r="E323" t="str">
+        <v>6.2 km</v>
+      </c>
+      <c r="F323" t="str">
+        <v>9 mins</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>10001</v>
+      </c>
+      <c r="B324" t="str">
+        <v>MCPG+GCX KNUST University Hospital, N6, Kumasi, Ghana</v>
+      </c>
+      <c r="C324" t="str">
+        <v>PF3C+9CV, Afia-kobi Street, Kumasi, Ghana</v>
+      </c>
+      <c r="D324" t="str">
+        <v>Sat, 16 Jul 2022 20:30:00 GMT</v>
+      </c>
+      <c r="E324" t="str">
+        <v>7.1 km</v>
+      </c>
+      <c r="F324" t="str">
+        <v>12 mins</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>10006</v>
+      </c>
+      <c r="B325" t="str">
+        <v>Bomso top high opp luv fm Kumasi-tech junction, Kumasi, Ghana</v>
+      </c>
+      <c r="C325" t="str">
+        <v>N6, Kumasi, Ghana</v>
+      </c>
+      <c r="D325" t="str">
+        <v>Sat, 16 Jul 2022 20:30:00 GMT</v>
+      </c>
+      <c r="E325" t="str">
+        <v>2.7 km</v>
+      </c>
+      <c r="F325" t="str">
+        <v>5 mins</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>10011</v>
+      </c>
+      <c r="B326" t="str">
+        <v>B56 Bomso Cres, Kumasi, Ghana</v>
+      </c>
+      <c r="C326" t="str">
+        <v>Unnamed Road, Kumasi, Ghana</v>
+      </c>
+      <c r="D326" t="str">
+        <v>Sat, 16 Jul 2022 20:30:00 GMT</v>
+      </c>
+      <c r="E326" t="str">
+        <v>4.6 km</v>
+      </c>
+      <c r="F326" t="str">
+        <v>8 mins</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>10010</v>
+      </c>
+      <c r="B327" t="str">
+        <v>Unnamed Road, Kumasi, Ghana</v>
+      </c>
+      <c r="C327" t="str">
+        <v>MCP7+G8J, JK Acheampong Ave, Kumasi, Ghana</v>
+      </c>
+      <c r="D327" t="str">
+        <v>Sat, 16 Jul 2022 20:30:00 GMT</v>
+      </c>
+      <c r="E327" t="str">
+        <v>6.5 km</v>
+      </c>
+      <c r="F327" t="str">
+        <v>8 mins</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>10003</v>
+      </c>
+      <c r="B328" t="str">
+        <v>MCPG+GCX KNUST University Hospital, N6, Kumasi, Ghana</v>
+      </c>
+      <c r="C328" t="str">
+        <v>Unnamed Road, Kumasi, Ghana</v>
+      </c>
+      <c r="D328" t="str">
+        <v>Sat, 16 Jul 2022 20:30:00 GMT</v>
+      </c>
+      <c r="E328" t="str">
+        <v>4.5 km</v>
+      </c>
+      <c r="F328" t="str">
+        <v>7 mins</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>10005</v>
+      </c>
+      <c r="B329" t="str">
+        <v>Bomso top high opp luv fm Kumasi-tech junction, Kumasi, Ghana</v>
+      </c>
+      <c r="C329" t="str">
+        <v>302 Kumasi - Ejisu Rd, Kumasi, Ghana</v>
+      </c>
+      <c r="D329" t="str">
+        <v>Sat, 16 Jul 2022 20:30:00 GMT</v>
+      </c>
+      <c r="E329" t="str">
+        <v>2.2 km</v>
+      </c>
+      <c r="F329" t="str">
+        <v>4 mins</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>10008</v>
+      </c>
+      <c r="B330" t="str">
+        <v>Unnamed Road, Kumasi, Ghana</v>
+      </c>
+      <c r="C330" t="str">
+        <v>Bomso top high opp luv fm Kumasi-tech junction, Kumasi, Ghana</v>
+      </c>
+      <c r="D330" t="str">
+        <v>Sat, 16 Jul 2022 20:30:00 GMT</v>
+      </c>
+      <c r="E330" t="str">
+        <v>6.4 km</v>
+      </c>
+      <c r="F330" t="str">
+        <v>10 mins</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>10012</v>
+      </c>
+      <c r="B331" t="str">
+        <v>N6, Kumasi, Ghana</v>
+      </c>
+      <c r="C331" t="str">
+        <v>Anloga Junction, MCQ3+6JG, Kumasi, Ghana</v>
+      </c>
+      <c r="D331" t="str">
+        <v>Sat, 16 Jul 2022 20:30:00 GMT</v>
+      </c>
+      <c r="E331" t="str">
+        <v>6.2 km</v>
+      </c>
+      <c r="F331" t="str">
+        <v>9 mins</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F304"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F331"/>
   </ignoredErrors>
 </worksheet>
 </file>